--- a/Sap.xlsx
+++ b/Sap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>IOC_Phase-2</t>
   </si>
@@ -166,6 +166,27 @@
   </si>
   <si>
     <t>To Check that SAP management console is available on Source VM</t>
+  </si>
+  <si>
+    <t>Configuration of source as as per Requirement.</t>
+  </si>
+  <si>
+    <t>Configuration of target machine is same as Source machine</t>
+  </si>
+  <si>
+    <t>SAP management console should be present on source machine</t>
+  </si>
+  <si>
+    <t>SAP management console should be present on target machine</t>
+  </si>
+  <si>
+    <t>SAP Logon should be available on client machine</t>
+  </si>
+  <si>
+    <t>Connectivity should be available to source machine</t>
+  </si>
+  <si>
+    <t>Connectivity should be available to target machine</t>
   </si>
 </sst>
 </file>
@@ -285,7 +306,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -313,6 +334,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -622,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -644,10 +668,11 @@
     <col min="14" max="14" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="2"/>
     <col min="16" max="16" width="81.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="17" max="17" width="33.28515625" style="10" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -713,7 +738,7 @@
       </c>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -748,7 +773,9 @@
       <c r="P2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
@@ -773,13 +800,13 @@
       <c r="P3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="6"/>
+      <c r="Q3" s="8"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -814,7 +841,9 @@
       <c r="P4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -839,13 +868,13 @@
       <c r="P5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="8"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -880,7 +909,9 @@
       <c r="P6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -905,13 +936,13 @@
       <c r="P7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="6"/>
+      <c r="Q7" s="8"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -946,7 +977,9 @@
       <c r="P8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="6"/>
+      <c r="Q8" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -971,13 +1004,13 @@
       <c r="P9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="8"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -1012,7 +1045,9 @@
       <c r="P10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -1037,7 +1072,7 @@
       <c r="P11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="8"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -1062,7 +1097,7 @@
       <c r="P12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="6"/>
+      <c r="Q12" s="8"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -1087,7 +1122,7 @@
       <c r="P13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="8"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -1128,7 +1163,9 @@
       <c r="P14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -1153,7 +1190,7 @@
       <c r="P15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="8"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -1178,7 +1215,7 @@
       <c r="P16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="6"/>
+      <c r="Q16" s="8"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
@@ -1203,7 +1240,7 @@
       <c r="P17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q17" s="6"/>
+      <c r="Q17" s="8"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
@@ -1228,7 +1265,7 @@
       <c r="P18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="6"/>
+      <c r="Q18" s="8"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -1253,7 +1290,7 @@
       <c r="P19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="6"/>
+      <c r="Q19" s="8"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
@@ -1278,7 +1315,7 @@
       <c r="P20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Q20" s="6"/>
+      <c r="Q20" s="8"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
@@ -1303,7 +1340,7 @@
       <c r="P21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q21" s="6"/>
+      <c r="Q21" s="8"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
@@ -1328,7 +1365,7 @@
       <c r="P22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q22" s="6"/>
+      <c r="Q22" s="8"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -1369,7 +1406,9 @@
       <c r="P23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q23" s="6"/>
+      <c r="Q23" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
@@ -1394,7 +1433,7 @@
       <c r="P24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q24" s="6"/>
+      <c r="Q24" s="8"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
@@ -1419,7 +1458,7 @@
       <c r="P25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q25" s="6"/>
+      <c r="Q25" s="8"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
@@ -1444,7 +1483,7 @@
       <c r="P26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q26" s="6"/>
+      <c r="Q26" s="8"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
@@ -1469,7 +1508,7 @@
       <c r="P27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q27" s="6"/>
+      <c r="Q27" s="8"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
@@ -1494,7 +1533,7 @@
       <c r="P28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="6"/>
+      <c r="Q28" s="8"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
@@ -1519,7 +1558,7 @@
       <c r="P29" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Q29" s="6"/>
+      <c r="Q29" s="8"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
@@ -1544,7 +1583,7 @@
       <c r="P30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="6"/>
+      <c r="Q30" s="8"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
@@ -1569,7 +1608,7 @@
       <c r="P31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q31" s="6"/>
+      <c r="Q31" s="8"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
